--- a/Report/Appendix/HistCodeSize.xlsx
+++ b/Report/Appendix/HistCodeSize.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
   <si>
     <t>Date:</t>
   </si>
@@ -27,16 +27,10 @@
     <t>Code size:</t>
   </si>
   <si>
-    <t>26.400 bytes</t>
-  </si>
-  <si>
     <t>Wed May 14 22:11:16</t>
   </si>
   <si>
     <t>Wed May 14 18:06:53</t>
-  </si>
-  <si>
-    <t>27.314 bytes</t>
   </si>
   <si>
     <t>Tue May 13 22:35:56 2014</t>
@@ -277,7 +271,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -341,8 +335,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -351,8 +377,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="95">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -384,6 +411,22 @@
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -415,6 +458,22 @@
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -429,10 +488,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="115"/>
+      <c14:style val="120"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="15"/>
+      <c:style val="20"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -701,7 +760,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -712,11 +770,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2128198648"/>
-        <c:axId val="-2125143496"/>
+        <c:axId val="2099711496"/>
+        <c:axId val="2099154584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2128198648"/>
+        <c:axId val="2099711496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,11 +791,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Date</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> &amp; Time</a:t>
+                  <a:t>Date &amp; Time</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -748,7 +802,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125143496"/>
+        <c:crossAx val="2099154584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -756,7 +810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125143496"/>
+        <c:axId val="2099154584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -786,7 +840,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128198648"/>
+        <c:crossAx val="2099711496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1165,17 +1219,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D92"/>
+  <dimension ref="A2:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -1188,645 +1243,653 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2">
         <v>4404</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2">
         <v>9668</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2">
         <v>9860</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2">
         <v>10156</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2">
         <v>10982</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2">
         <v>11038</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2">
         <v>13158</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
         <v>12266</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2">
         <v>14450</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2">
         <v>14676</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2">
         <v>15088</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2">
         <v>13894</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2">
         <v>15762</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2">
         <v>15910</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2">
         <v>16576</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2">
         <v>19550</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2">
         <v>18576</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2">
         <v>19500</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2">
         <v>19618</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2">
         <v>18766</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2">
         <v>19268</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2">
         <v>19436</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B30" s="2">
         <v>19294</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2">
         <v>19400</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2">
         <v>24776</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B33" s="2">
         <v>24864</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B34" s="2">
         <v>27314</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2">
         <v>26724</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B36" s="2">
         <v>27024</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B37" s="2">
         <v>26844</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B38" s="2">
         <v>26716</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" s="2">
         <v>26594</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2">
         <v>26608</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="2">
         <v>26612</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" s="2">
         <v>26612</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" s="2">
         <v>26634</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B44" s="2">
         <v>26400</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="B69" s="6">
+        <v>27314</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B71">
+        <v>13</v>
+      </c>
+      <c r="B70" s="1">
         <f>6776-5470</f>
         <v>1306</v>
       </c>
-      <c r="C71" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B73">
+    <row r="71" spans="1:4">
+      <c r="B71">
         <f>27314-24932</f>
         <v>2382</v>
       </c>
-      <c r="C73" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B74">
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="B72">
         <f>27314-24450</f>
         <v>2864</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75">
+    <row r="73" spans="1:4">
+      <c r="B73">
         <f>27314-25606</f>
         <v>1708</v>
       </c>
-      <c r="C75" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76">
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="1">
+        <f>SUM(B71:B73)</f>
+        <v>6954</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
         <f>27314-21097</f>
         <v>6217</v>
       </c>
-      <c r="C76" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>11</v>
-      </c>
-      <c r="B77">
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="1">
         <f>27314-23650</f>
         <v>3664</v>
       </c>
-      <c r="C77" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B79">
-        <f>SUM(B71:B77)</f>
-        <v>18141</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="4"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1" t="s">
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>2</v>
+      <c r="B78" s="1" t="e">
+        <f>SUM(B70)+B74:B76</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" t="s">
+      <c r="A83" s="4"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="6">
+        <v>26400</v>
+      </c>
+      <c r="C85" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B84">
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87">
         <f>6776-5470</f>
         <v>1306</v>
       </c>
-      <c r="C84" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="4" t="s">
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
         <v>12</v>
       </c>
-      <c r="B86">
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89">
         <f>26400-23704</f>
         <v>2696</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B87">
+      <c r="B90">
         <f>26400-23512</f>
         <v>2888</v>
       </c>
-      <c r="C87" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88">
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91">
         <f>26400-24820</f>
         <v>1580</v>
       </c>
-      <c r="C88" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B89">
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92">
         <f>26400-18558</f>
         <v>7842</v>
       </c>
-      <c r="C89" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>11</v>
-      </c>
-      <c r="B90">
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93">
         <f>26400-22588</f>
         <v>3812</v>
       </c>
-      <c r="C90" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B92">
-        <f>SUM(B84:B90)</f>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" s="1">
+        <f>SUM(B87:B93)</f>
         <v>20124</v>
       </c>
     </row>

--- a/Report/Appendix/HistCodeSize.xlsx
+++ b/Report/Appendix/HistCodeSize.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>Date:</t>
   </si>
@@ -78,9 +78,6 @@
     <t>sum</t>
   </si>
   <si>
-    <t xml:space="preserve"> bytes</t>
-  </si>
-  <si>
     <t>Size:</t>
   </si>
   <si>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>Mon Juni 2</t>
+  </si>
+  <si>
+    <t>max:</t>
   </si>
 </sst>
 </file>
@@ -271,8 +271,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -379,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="99">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -427,6 +431,8 @@
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -474,6 +480,8 @@
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -488,14 +496,18 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="120"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="20"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -759,6 +771,264 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$8:$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>Sat Mar 15 00:30:32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Wed Mar 19 11:12:50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tue Mar 25 22:17:08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Thu Mar 27 17:41:52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sat Mar 29 15:43:35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sun Mar 30 17:51:14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tue Apr 1 22:15:13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Wed Apr 9 12:01:59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Wed Apr 9 15:25:36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Thu Apr 10 17:19:15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Thu Apr 10 20:54:15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Fri Apr 11 11:42:33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Fri Apr 11 23:00:44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sat Apr 12 01:01:23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Tue Apr 22 22:56:17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Wed Apr 23 17:38:45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Tue Apr 29 23:15:42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Wed Apr 30 10:14:06</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Wed Apr 30 12:41:56</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Thu May 1 22:05:30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Thu May 1 23:08:28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Fri May 2 23:04:01</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Fri May 2 23:42:10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Wed May 7 12:23:01</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Wed May 7 17:45:14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Tue May 13 15:59:05</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Tue May 13 22:35:56</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Wed May 14 15:01:32 </c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Wed May 14 16:56:54 </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Wed May 14 17:38:36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Wed May 14 17:44:09</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Wed May 14 17:51:08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Wed May 14 18:03:46</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Wed May 14 18:06:53</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Wed May 14 22:11:16</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Thu May 15 15:32:10</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Mon Juni 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28672.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -767,7 +1037,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2099711496"/>
@@ -780,25 +1049,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Date &amp; Time</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -818,26 +1068,11 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Code size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2099711496"/>
@@ -1221,16 +1456,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -1243,46 +1478,49 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2">
         <v>4404</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
+      <c r="C8" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2">
         <v>9668</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
+      <c r="C9" s="2">
+        <v>28672</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2">
         <v>9860</v>
       </c>
-      <c r="C10" t="s">
-        <v>19</v>
+      <c r="C10" s="2">
+        <v>28672</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1290,74 +1528,74 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2">
         <v>10156</v>
       </c>
-      <c r="C11" t="s">
-        <v>19</v>
+      <c r="C11" s="2">
+        <v>28672</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2">
         <v>10982</v>
       </c>
-      <c r="C12" t="s">
-        <v>19</v>
+      <c r="C12" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2">
         <v>11038</v>
       </c>
-      <c r="C13" t="s">
-        <v>19</v>
+      <c r="C13" s="2">
+        <v>28672</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2">
         <v>13158</v>
       </c>
-      <c r="C14" t="s">
-        <v>19</v>
+      <c r="C14" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
         <v>12266</v>
       </c>
-      <c r="C15" t="s">
-        <v>19</v>
+      <c r="C15" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2">
         <v>14450</v>
       </c>
-      <c r="C16" t="s">
-        <v>19</v>
+      <c r="C16" s="2">
+        <v>28672</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>5</v>
@@ -1365,269 +1603,269 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2">
         <v>14676</v>
       </c>
-      <c r="C17" t="s">
-        <v>19</v>
+      <c r="C17" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2">
         <v>15088</v>
       </c>
-      <c r="C18" t="s">
-        <v>19</v>
+      <c r="C18" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2">
         <v>13894</v>
       </c>
-      <c r="C19" t="s">
-        <v>19</v>
+      <c r="C19" s="2">
+        <v>28672</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2">
         <v>15762</v>
       </c>
-      <c r="C20" t="s">
-        <v>19</v>
+      <c r="C20" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2">
         <v>15910</v>
       </c>
-      <c r="C21" t="s">
-        <v>19</v>
+      <c r="C21" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2">
         <v>16576</v>
       </c>
-      <c r="C22" t="s">
-        <v>19</v>
+      <c r="C22" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2">
         <v>19550</v>
       </c>
-      <c r="C23" t="s">
-        <v>19</v>
+      <c r="C23" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2">
         <v>18576</v>
       </c>
-      <c r="C24" t="s">
-        <v>19</v>
+      <c r="C24" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2">
         <v>19500</v>
       </c>
-      <c r="C25" t="s">
-        <v>19</v>
+      <c r="C25" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2">
         <v>19618</v>
       </c>
-      <c r="C26" t="s">
-        <v>19</v>
+      <c r="C26" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2">
         <v>18766</v>
       </c>
-      <c r="C27" t="s">
-        <v>19</v>
+      <c r="C27" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2">
         <v>19268</v>
       </c>
-      <c r="C28" t="s">
-        <v>19</v>
+      <c r="C28" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2">
         <v>19436</v>
       </c>
-      <c r="C29" t="s">
-        <v>19</v>
+      <c r="C29" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2">
         <v>19294</v>
       </c>
-      <c r="C30" t="s">
-        <v>19</v>
+      <c r="C30" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2">
         <v>19400</v>
       </c>
-      <c r="C31" t="s">
-        <v>19</v>
+      <c r="C31" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2">
         <v>24776</v>
       </c>
-      <c r="C32" t="s">
-        <v>19</v>
+      <c r="C32" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2">
         <v>24864</v>
       </c>
-      <c r="C33" t="s">
-        <v>19</v>
+      <c r="C33" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2">
         <v>27314</v>
       </c>
-      <c r="C34" t="s">
-        <v>19</v>
+      <c r="C34" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2">
         <v>26724</v>
       </c>
-      <c r="C35" t="s">
-        <v>19</v>
+      <c r="C35" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2">
         <v>27024</v>
       </c>
-      <c r="C36" t="s">
-        <v>19</v>
+      <c r="C36" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" s="2">
         <v>26844</v>
       </c>
-      <c r="C37" t="s">
-        <v>19</v>
+      <c r="C37" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2">
         <v>26716</v>
       </c>
-      <c r="C38" t="s">
-        <v>19</v>
+      <c r="C38" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2">
         <v>26594</v>
       </c>
-      <c r="C39" t="s">
-        <v>19</v>
+      <c r="C39" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2">
         <v>26608</v>
       </c>
-      <c r="C40" t="s">
-        <v>19</v>
+      <c r="C40" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1637,8 +1875,8 @@
       <c r="B41" s="2">
         <v>26612</v>
       </c>
-      <c r="C41" t="s">
-        <v>19</v>
+      <c r="C41" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1648,30 +1886,30 @@
       <c r="B42" s="2">
         <v>26612</v>
       </c>
-      <c r="C42" t="s">
-        <v>19</v>
+      <c r="C42" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" s="2">
         <v>26634</v>
       </c>
-      <c r="C43" t="s">
-        <v>19</v>
+      <c r="C43" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44" s="2">
         <v>26400</v>
       </c>
-      <c r="C44" t="s">
-        <v>19</v>
+      <c r="C44" s="2">
+        <v>28672</v>
       </c>
     </row>
     <row r="68" spans="1:4">

--- a/Report/Appendix/HistCodeSize.xlsx
+++ b/Report/Appendix/HistCodeSize.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>Date:</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>max:</t>
+  </si>
+  <si>
+    <t>min:</t>
   </si>
 </sst>
 </file>
@@ -271,8 +274,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -383,7 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="101">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -433,6 +438,7 @@
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -482,6 +488,7 @@
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1029,6 +1036,264 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$8:$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>Sat Mar 15 00:30:32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Wed Mar 19 11:12:50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tue Mar 25 22:17:08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Thu Mar 27 17:41:52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sat Mar 29 15:43:35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sun Mar 30 17:51:14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tue Apr 1 22:15:13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Wed Apr 9 12:01:59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Wed Apr 9 15:25:36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Thu Apr 10 17:19:15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Thu Apr 10 20:54:15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Fri Apr 11 11:42:33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Fri Apr 11 23:00:44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sat Apr 12 01:01:23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Tue Apr 22 22:56:17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Wed Apr 23 17:38:45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Tue Apr 29 23:15:42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Wed Apr 30 10:14:06</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Wed Apr 30 12:41:56</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Thu May 1 22:05:30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Thu May 1 23:08:28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Fri May 2 23:04:01</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Fri May 2 23:42:10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Wed May 7 12:23:01</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Wed May 7 17:45:14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Tue May 13 15:59:05</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Tue May 13 22:35:56</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Wed May 14 15:01:32 </c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Wed May 14 16:56:54 </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Wed May 14 17:38:36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Wed May 14 17:44:09</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Wed May 14 17:51:08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Wed May 14 18:03:46</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Wed May 14 18:06:53</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Wed May 14 22:11:16</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Thu May 15 15:32:10</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Mon Juni 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$8:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4242.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1039,11 +1304,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2099711496"/>
-        <c:axId val="2099154584"/>
+        <c:axId val="2110008424"/>
+        <c:axId val="2097329608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2099711496"/>
+        <c:axId val="2110008424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,7 +1317,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099154584"/>
+        <c:crossAx val="2097329608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1060,7 +1325,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099154584"/>
+        <c:axId val="2097329608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1340,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099711496"/>
+        <c:crossAx val="2110008424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1454,10 +1719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D95"/>
+  <dimension ref="A2:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1468,12 +1733,12 @@
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1483,11 +1748,14 @@
       <c r="C5" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1765,11 @@
       <c r="C8" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1508,11 +1779,14 @@
       <c r="C9" s="2">
         <v>28672</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2">
+        <v>4242</v>
+      </c>
+      <c r="E9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1522,11 +1796,14 @@
       <c r="C10" s="2">
         <v>28672</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2">
+        <v>4242</v>
+      </c>
+      <c r="E10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1536,11 +1813,14 @@
       <c r="C11" s="2">
         <v>28672</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2">
+        <v>4242</v>
+      </c>
+      <c r="E11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1550,8 +1830,11 @@
       <c r="C12" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1561,11 +1844,14 @@
       <c r="C13" s="2">
         <v>28672</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2">
+        <v>4242</v>
+      </c>
+      <c r="E13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1575,8 +1861,11 @@
       <c r="C14" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1586,8 +1875,11 @@
       <c r="C15" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1597,11 +1889,14 @@
       <c r="C16" s="2">
         <v>28672</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2">
+        <v>4242</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1611,8 +1906,11 @@
       <c r="C17" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1622,8 +1920,11 @@
       <c r="C18" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1633,11 +1934,14 @@
       <c r="C19" s="2">
         <v>28672</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2">
+        <v>4242</v>
+      </c>
+      <c r="E19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1647,8 +1951,11 @@
       <c r="C20" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1658,8 +1965,11 @@
       <c r="C21" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="D21" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1669,8 +1979,11 @@
       <c r="C22" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="D22" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1680,8 +1993,11 @@
       <c r="C23" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="D23" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -1691,8 +2007,11 @@
       <c r="C24" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="D24" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -1702,8 +2021,11 @@
       <c r="C25" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="D25" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -1713,8 +2035,11 @@
       <c r="C26" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="D26" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1724,8 +2049,11 @@
       <c r="C27" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="D27" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -1735,8 +2063,11 @@
       <c r="C28" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="D28" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -1746,8 +2077,11 @@
       <c r="C29" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="D29" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -1757,8 +2091,11 @@
       <c r="C30" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="D30" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -1768,8 +2105,11 @@
       <c r="C31" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="D31" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -1779,8 +2119,11 @@
       <c r="C32" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1790,8 +2133,11 @@
       <c r="C33" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -1801,8 +2147,11 @@
       <c r="C34" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -1812,8 +2161,11 @@
       <c r="C35" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
         <v>53</v>
       </c>
@@ -1823,8 +2175,11 @@
       <c r="C36" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -1834,8 +2189,11 @@
       <c r="C37" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -1845,8 +2203,11 @@
       <c r="C38" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1856,8 +2217,11 @@
       <c r="C39" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -1867,8 +2231,11 @@
       <c r="C40" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1878,8 +2245,11 @@
       <c r="C41" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -1889,8 +2259,11 @@
       <c r="C42" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -1900,8 +2273,11 @@
       <c r="C43" s="2">
         <v>28672</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="2">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -1910,6 +2286,9 @@
       </c>
       <c r="C44" s="2">
         <v>28672</v>
+      </c>
+      <c r="D44" s="2">
+        <v>4242</v>
       </c>
     </row>
     <row r="68" spans="1:4">
